--- a/_sync/设定灵感.xlsx
+++ b/_sync/设定灵感.xlsx
@@ -3,12 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBF877B-F591-433C-9779-9211585DB5B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE916CA9-ACB0-4823-A466-0B58288D4B28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="故事设定" sheetId="12" r:id="rId1"/>
+    <sheet name="角色设定" sheetId="1" r:id="rId2"/>
+    <sheet name="怪物设定" sheetId="6" r:id="rId3"/>
+    <sheet name="载具设定" sheetId="7" r:id="rId4"/>
+    <sheet name="道具设定" sheetId="8" r:id="rId5"/>
+    <sheet name="装备设定" sheetId="9" r:id="rId6"/>
+    <sheet name="僵尸射击游戏" sheetId="11" r:id="rId7"/>
+    <sheet name="勇者养成游戏" sheetId="2" r:id="rId8"/>
+    <sheet name="星际文明战棋" sheetId="3" r:id="rId9"/>
+    <sheet name="露营游戏" sheetId="4" r:id="rId10"/>
+    <sheet name="庄园游戏" sheetId="5" r:id="rId11"/>
+    <sheet name="江湖武侠游戏" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>善后工程师(善后工程师的一天)</t>
   </si>
@@ -29,15 +40,221 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不论什么情况都能善后,善后的时候可能会遇到各种情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任务都很急,经常加班,非常专业,经常叹气</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>待晋升的B级冒险家(好像加到善后工程师那里也行)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>露营游戏《Yurucamp△》（摇曳露营)</t>
+  </si>
+  <si>
+    <t>很多中国的旅游景点,大家要多多出去看看祖国的大好河山啊</t>
+  </si>
+  <si>
+    <t>游戏里有丰富的动作和互动设计.</t>
+  </si>
+  <si>
+    <t>请注意环保啊,不环保会被惩罚的(景区分不变,账号要做一次不可跳过的公益苦工才能继续旅游).做出了好的环保行为,会给景区加分.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类似 明日方舟 + 自走棋 但 每个棋子有类似ACT游戏的丰富的动作元素 互相攻击时甚至会触发闪避,防御反击等效果及动作,一对多时也会想办法克服问题. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以考虑纯写实二次元的干脆利落(重伤必死,战斗节奏快,不容队员有失误的紧迫感,但要让AI真正能想玩家所想,成本极高,且整体操作要慢一些精致一些.动作也要更精致一些,成本极高,但是玩着绝对爽(其实就是看着爽)),或者云顶之弈式(掉血放技能模式,战斗需要长时间等待,感官差些,但成本极低,整体游戏体验节奏较紧凑,操作不会太精致,动作一般化即可). </t>
+  </si>
+  <si>
+    <t>添加刷副本等冒险元素.全员整备阶段,探索阶段,战斗阶段等. 队员类型分为 刺客 近战 远程 法师(按等级解锁复杂魔法) 星级高的队员在产生突出贡献时会触发高光时刻.(承受高额伤害,拯救队友,高额伤害,高品质团控,高强度治疗,击杀对方高额伤害人员,击杀对方高额承伤人员,等等等等,可以按稀有度再次分类,以设置高光时刻频率5-0) 每个队员最多再带领4名侍卫.</t>
+  </si>
+  <si>
+    <t>可以合并MLAgents训练AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物级别</t>
+  </si>
+  <si>
+    <t>普通 精英 头目 首领 (变异跨1.5档 比如普通变异,相当于精英和头目之间,变异可能在战斗的过程中发生,变异怪物会有足够的特殊奖励)</t>
+  </si>
+  <si>
+    <t>燕云十六声 江湖武侠(牡蛤)</t>
+  </si>
+  <si>
+    <t>类似星际文明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园创造和舰队组织,购买指挥官进行自动战斗,自己可以手动操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥官可以用MLAgents进行训练,有不同的作战方案和倾向.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLAgents版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家主要目标是赚钱雇AI守家,雇AI冒险探索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI由MLAgents训练,可损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似4399僵尸危机.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑是四方向还是多方向.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先都做一版,看哪个好玩一点,再加类似建造之类的功能.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以布置家园,可以自己探索,派AI探索,带着AI探索.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一开始只能走不远,因为探索时间长了家就被毁了,后来逐渐可以放心的出门探索.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限模式(积分榜)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏和看广告积累金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器(不同攻击方式,不同效果)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色(长得不一样,图案不一样)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶视图打僵尸射击游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事模式(探索)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战模式(联机)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助(宠物,无人机)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力(核心建筑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴火堆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井(核心建筑)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI扮演的是人类NPC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园建造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索地图收集资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赚钱买帮手,培养帮手(等级,技能,武器,装备,道具等)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个发电机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电机(三个柴火堆)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个世界是一个虚拟现实游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神体永生不灭,精神体之间的战斗就是想法设法将对方困在无尽的循环当中.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切都只为了困住一个"人",一个以为自己是人的精神体.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(每当这个精神体有觉醒的可能时,世界就会发生一些天翻地覆的变化,让他的重新注意自己生而为人的事实)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(景观,奇迹,社会,经济,政治,矛盾,战争,轮回,传说,人类,宇宙,都是为了困住这个精神体编纂的剧情.一切无比真实,才能让这个败北的精神体深陷无尽的牢笼)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们是一个个"真实"的NPC,坚定的相信着自己的存在的龙套角色.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不论什么情况都能善后,善后的时候可能会遇到各种情况
+比如:善后的时候,发现被勇者斩杀的恶龙其实是装死,不得不再和恶龙战斗一番…
+不得不身穿女装混入聚会寻找善后的服务对象.
+服务对象是掌握了关键资料的秘密卧底,找到并提供共善后服务,由于保密级别太高,知道的卧底的资料只有性别,和这个卧底目前在一个2000人的组织中…
+好不容易的双休日,不小心被一次善后时的敌人认了出来,为了躲避追杀,不得不接连两日跑了8个城市.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -52,7 +269,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>不不,还是没有级别竞争比较激烈</t>
+      <t>不不,还是没有级别的末尾淘汰制,竞争比较激烈,结局发现善后工程师只有自己一个...</t>
     </r>
     <r>
       <rPr>
@@ -153,10 +370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -530,11 +750,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F091F2D-E16F-4281-BBF1-29F441A653A7}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDF7461-8753-420C-B76A-435F86AC6E3B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8523AD-93AC-4B51-8016-A08145810A8D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66C2E66-A6C5-4B5C-9ADD-6FC2F39EA64B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -549,22 +889,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -576,4 +916,297 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCA1C8D-50EE-48D8-8D56-28B630C4D19A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367B170B-FE33-488C-A39C-83D505DE9CC8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF622AD-BEB9-4820-A0F5-393312B40EE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB40998-870E-4DCC-9F33-A24B5C9BC776}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B287D4-A17A-422A-B475-ACB3CEF7529D}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C7C2BA-92CD-4398-9074-14AB99878B99}">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DBBC06-6E58-4709-B214-269D559295CF}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>